--- a/Datasets/quality.xlsx
+++ b/Datasets/quality.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\Academy\Statistics (Python)\Datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A03217-5C7B-443D-9693-1D1923B95EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="quality" sheetId="1" r:id="rId1"/>
     <sheet name="quality2" sheetId="2" r:id="rId2"/>
     <sheet name="quality3" sheetId="3" r:id="rId3"/>
-    <sheet name="quality4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -55,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,9 +105,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -162,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,26 +185,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,23 +220,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,19 +395,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="6.1796875" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -497,7 +453,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -520,7 +476,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -543,7 +499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -566,7 +522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -589,7 +545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>1</v>
       </c>
@@ -600,7 +556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>2</v>
       </c>
@@ -611,7 +567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>3</v>
       </c>
@@ -622,7 +578,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>4</v>
       </c>
@@ -633,7 +589,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>5</v>
       </c>
@@ -644,7 +600,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>1</v>
       </c>
@@ -655,7 +611,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>2</v>
       </c>
@@ -666,7 +622,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>3</v>
       </c>
@@ -677,7 +633,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>4</v>
       </c>
@@ -688,7 +644,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>5</v>
       </c>
@@ -705,16 +661,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -772,7 +728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -801,7 +757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -830,7 +786,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -856,7 +812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -885,7 +841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>1</v>
       </c>
@@ -899,7 +855,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>2</v>
       </c>
@@ -913,7 +869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>3</v>
       </c>
@@ -927,7 +883,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>4</v>
       </c>
@@ -938,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>5</v>
       </c>
@@ -952,7 +908,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>1</v>
       </c>
@@ -966,7 +922,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>2</v>
       </c>
@@ -980,7 +936,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>3</v>
       </c>
@@ -994,7 +950,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>4</v>
       </c>
@@ -1008,7 +964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>5</v>
       </c>
@@ -1028,16 +984,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1071,7 +1027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1088,7 +1044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1105,7 +1061,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1119,7 +1075,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1136,7 +1092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1151,105 +1107,6 @@
       </c>
       <c r="E7">
         <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06476D68-000A-46E2-AE29-6813D2B25C9A}">
-  <dimension ref="D5:G10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="5" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>97</v>
-      </c>
-      <c r="F6" s="2">
-        <v>93</v>
-      </c>
-      <c r="G6" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>73</v>
-      </c>
-      <c r="F7" s="2">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>93</v>
-      </c>
-      <c r="F8" s="2">
-        <v>93</v>
-      </c>
-      <c r="G8" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2">
-        <v>100</v>
-      </c>
-      <c r="F9" s="2">
-        <v>55</v>
-      </c>
-      <c r="G9" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2">
-        <v>77</v>
-      </c>
-      <c r="G10" s="2">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
